--- a/mathTransformed/HMPSTT_(2017-08-27)_64_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-08-27)_64_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -479,6 +484,11 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>G P U C (H S) Lingasugur</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Raichur</t>
         </is>
@@ -507,6 +517,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G H S MarakamadinniManvi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -534,6 +549,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H S Maliyabad Camp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -561,6 +581,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G H S AlabanurSindhanur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -588,6 +613,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Govt. P U College for girls (High School Section) Sindhanur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -615,6 +645,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G G H S Manvi</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -642,6 +677,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>P G H S Ganadhal</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -669,6 +709,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G H S Gajagarpet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -696,6 +741,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G H S Kadlur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -723,6 +773,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H S Lingasugur TownLingasugur</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -750,6 +805,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G H SGabburDevadurga</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -777,6 +837,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G P U C (H S) GuruguntaLingasugur</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -804,6 +869,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H S Kalmala</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -831,6 +901,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G H S GanadhalDevadurga</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -858,6 +933,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Govt. Adarsh VidyalayaNeermanviManvi</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -885,6 +965,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G P U C (H S) Rodalabanda Camp. Lingasugur</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -912,7 +997,8 @@
           <t>GNANABHARATHI</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>G H S KEB Colony Raichur</t>
         </is>
@@ -941,6 +1027,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H S AdaviamareshwarManvi</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -968,6 +1059,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G B H S Manvi</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -995,6 +1091,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Govt. Adarsha VidyalayaLingasugur</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1022,6 +1123,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>St. Mary’s Convent H S</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1049,6 +1155,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>D D M H S AnehosurLingasugur</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1076,6 +1187,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G H S AnkushadoddiLingasugur</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1103,6 +1219,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G H S UtakanurManvi</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1130,6 +1251,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S ValabellarySindhanur</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1157,6 +1283,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G H S MukkundaSindhanur</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1184,6 +1315,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>J J H S JalahalliDeodurga</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1211,6 +1347,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>M D R S MasarakalDeodurg</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1238,6 +1379,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H STidigolSindhanur</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1265,6 +1411,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H S PamanakallurManvi</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1292,6 +1443,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G H S GalagDevadurga</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1313,6 +1469,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G H S SomalapurSindhanur</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1340,6 +1501,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>G H S VirupapuraSindhanur</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1367,6 +1533,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G H S GundaSindhanur</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1394,6 +1565,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G H S Singanodi</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1421,6 +1597,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>G H S ArakeraDevadurga</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1448,6 +1629,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Hamdard High School</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1475,6 +1661,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>G H S SajjalguddaLingasugur</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1502,6 +1693,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>G H S NavalakalManvi</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1529,6 +1725,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>G H S Masarkal Deodurga</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1556,6 +1757,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>K R C R S Deodurga</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1583,6 +1789,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>G H S MasarakalDeodurga</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1610,6 +1821,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>G H S KolabalSindhanur</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1637,6 +1853,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>G H S Ambamata</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1664,6 +1885,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>G H S HeeraManvi</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1691,6 +1917,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>G H S Athkur</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1718,6 +1949,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>G P U C (H S) Lingasugur</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1745,6 +1981,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>G H S MaraladinniLingasugur</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1772,6 +2013,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>G H S Hanchinal Camp KSindhanur</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1799,6 +2045,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>G H S Udumgal Khanapur</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1826,6 +2077,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>G H S HunurLingasugur</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1853,6 +2109,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>G H S HirebudurDevadurga</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1880,6 +2141,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>G H S ShivangiDevadurga</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1907,6 +2173,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>G G H S KavitalManvi</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1934,6 +2205,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>G H S HemanurDevadurga</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1961,6 +2237,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>G H S MushturDevadurga</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1990,6 +2271,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>G H S BagalawadaManvi</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -2017,6 +2303,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>G H S ChannalliSindhanur</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -2044,6 +2335,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>G H S MatamariRaichur Taluk</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -2071,6 +2367,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>G H S PothnalManvi</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -2098,6 +2399,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>G H S MadarakalDevadurga</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -2125,6 +2431,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>G H S AyanurSindhanur</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -2152,6 +2463,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>G G H S Devadurga</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -2178,6 +2494,11 @@
         </is>
       </c>
       <c r="F66" t="inlineStr">
+        <is>
+          <t>Govt. High School SantekellurLingasuguru</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>Raichur</t>
         </is>

--- a/mathTransformed/HMPSTT_(2017-08-27)_64_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-08-27)_64_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,7 +997,6 @@
           <t>GNANABHARATHI</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>G H S KEB Colony Raichur</t>

--- a/mathTransformed/HMPSTT_(2017-08-27)_64_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-08-27)_64_4.xlsx
@@ -999,7 +999,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>G H S KEB Colony Raichur</t>
+          <t>Raichur</t>
         </is>
       </c>
     </row>
